--- a/2-Empirical-Evidence/raw_data/South_Carolina.xlsx
+++ b/2-Empirical-Evidence/raw_data/South_Carolina.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN450010000000003</t>
@@ -1090,10 +1106,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>6.7</v>
@@ -1188,10 +1216,20 @@
       <c r="AF5" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>803.0</v>
@@ -1286,10 +1324,20 @@
       <c r="AF6" t="n" s="8">
         <v>629.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>430.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>364.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>351.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>11113.0</v>
@@ -1384,10 +1432,20 @@
       <c r="AF7" t="n" s="8">
         <v>9142.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>9166.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>9111.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>9214.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>11916.0</v>
@@ -1482,10 +1540,20 @@
       <c r="AF8" t="n" s="8">
         <v>9771.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>9596.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>9475.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>9565.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>4.7</v>
@@ -1580,10 +1648,20 @@
       <c r="AF9" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>2870.0</v>
@@ -1678,10 +1756,20 @@
       <c r="AF10" t="n" s="8">
         <v>3583.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>2469.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>2300.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>2215.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>58142.0</v>
@@ -1776,10 +1864,20 @@
       <c r="AF11" t="n" s="8">
         <v>70326.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>71274.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>71447.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>71936.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>61012.0</v>
@@ -1874,10 +1972,20 @@
       <c r="AF12" t="n" s="8">
         <v>73909.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>73743.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>73747.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>74151.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>7.3</v>
@@ -1972,10 +2080,20 @@
       <c r="AF13" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>319.0</v>
@@ -2070,10 +2188,20 @@
       <c r="AF14" t="n" s="8">
         <v>236.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>182.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>4066.0</v>
@@ -2168,10 +2296,20 @@
       <c r="AF15" t="n" s="8">
         <v>2319.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>2239.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>2157.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>2200.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>4385.0</v>
@@ -2266,10 +2404,20 @@
       <c r="AF16" t="n" s="8">
         <v>2555.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>2421.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>2285.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>2323.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>5.4</v>
@@ -2364,10 +2512,20 @@
       <c r="AF17" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>4106.0</v>
@@ -2462,10 +2620,20 @@
       <c r="AF18" t="n" s="8">
         <v>5098.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>3290.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>2744.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>2605.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>72015.0</v>
@@ -2560,10 +2728,20 @@
       <c r="AF19" t="n" s="8">
         <v>83660.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>86763.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>89311.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>91622.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>76121.0</v>
@@ -2658,10 +2836,20 @@
       <c r="AF20" t="n" s="8">
         <v>88758.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>90053.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>92055.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>94227.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>9.3</v>
@@ -2756,10 +2944,20 @@
       <c r="AF21" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>684.0</v>
@@ -2854,10 +3052,20 @@
       <c r="AF22" t="n" s="8">
         <v>415.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>334.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>248.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>244.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>6668.0</v>
@@ -2952,10 +3160,20 @@
       <c r="AF23" t="n" s="8">
         <v>4344.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>4290.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>4303.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>4341.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>7352.0</v>
@@ -3050,10 +3268,20 @@
       <c r="AF24" t="n" s="8">
         <v>4759.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>4624.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>4551.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>4585.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>9.7</v>
@@ -3148,10 +3376,20 @@
       <c r="AF25" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>949.0</v>
@@ -3246,10 +3484,20 @@
       <c r="AF26" t="n" s="8">
         <v>556.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>472.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>350.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>332.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>8870.0</v>
@@ -3344,10 +3592,20 @@
       <c r="AF27" t="n" s="8">
         <v>7221.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>7042.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>7215.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>7328.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>9819.0</v>
@@ -3442,10 +3700,20 @@
       <c r="AF28" t="n" s="8">
         <v>7777.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>7514.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>7565.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>7660.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>3.7</v>
@@ -3540,10 +3808,20 @@
       <c r="AF29" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>1350.0</v>
@@ -3638,10 +3916,20 @@
       <c r="AF30" t="n" s="8">
         <v>3946.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>2603.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>2393.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>2224.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>35050.0</v>
@@ -3736,10 +4024,20 @@
       <c r="AF31" t="n" s="8">
         <v>71015.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>73363.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>74636.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>77626.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>36400.0</v>
@@ -3834,10 +4132,20 @@
       <c r="AF32" t="n" s="8">
         <v>74961.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>75966.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>77029.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>79850.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>2.9</v>
@@ -3932,10 +4240,20 @@
       <c r="AF33" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>1643.0</v>
@@ -4030,10 +4348,20 @@
       <c r="AF34" t="n" s="8">
         <v>5596.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>3824.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>3365.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>3100.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>54257.0</v>
@@ -4128,10 +4456,20 @@
       <c r="AF35" t="n" s="8">
         <v>98848.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>103019.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>107041.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>112230.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>55900.0</v>
@@ -4226,10 +4564,20 @@
       <c r="AF36" t="n" s="8">
         <v>104444.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>106843.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>110406.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>115330.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>6.4</v>
@@ -4324,10 +4672,20 @@
       <c r="AF37" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>392.0</v>
@@ -4422,10 +4780,20 @@
       <c r="AF38" t="n" s="8">
         <v>379.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>283.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>224.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>215.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>5719.0</v>
@@ -4520,10 +4888,20 @@
       <c r="AF39" t="n" s="8">
         <v>5983.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>6124.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>6227.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>6385.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>6111.0</v>
@@ -4618,10 +4996,20 @@
       <c r="AF40" t="n" s="8">
         <v>6362.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>6407.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>6451.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>6600.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>3.0</v>
@@ -4716,10 +5104,20 @@
       <c r="AF41" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>4243.0</v>
@@ -4814,10 +5212,20 @@
       <c r="AF42" t="n" s="8">
         <v>12671.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>7451.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>5914.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>5510.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>137206.0</v>
@@ -4912,10 +5320,20 @@
       <c r="AF43" t="n" s="8">
         <v>194389.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>202844.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>210699.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>220866.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>141449.0</v>
@@ -5010,10 +5428,20 @@
       <c r="AF44" t="n" s="8">
         <v>207060.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>210295.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>216613.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>226376.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>5.7</v>
@@ -5108,10 +5536,20 @@
       <c r="AF45" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>1316.0</v>
@@ -5206,10 +5644,20 @@
       <c r="AF46" t="n" s="8">
         <v>1927.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>1217.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>989.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>980.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>21624.0</v>
@@ -5304,10 +5752,20 @@
       <c r="AF47" t="n" s="8">
         <v>22894.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>23526.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>23188.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>22401.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>22940.0</v>
@@ -5402,10 +5860,20 @@
       <c r="AF48" t="n" s="8">
         <v>24821.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>24743.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>24177.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>23381.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>10.2</v>
@@ -5500,10 +5968,20 @@
       <c r="AF49" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>1639.0</v>
@@ -5598,10 +6076,20 @@
       <c r="AF50" t="n" s="8">
         <v>1156.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>752.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>564.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>541.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>14401.0</v>
@@ -5696,10 +6184,20 @@
       <c r="AF51" t="n" s="8">
         <v>12043.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>12520.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>12865.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>13199.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>16040.0</v>
@@ -5794,10 +6292,20 @@
       <c r="AF52" t="n" s="8">
         <v>13199.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>13272.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>13429.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>13740.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>5.4</v>
@@ -5892,10 +6400,20 @@
       <c r="AF53" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>1031.0</v>
@@ -5990,10 +6508,20 @@
       <c r="AF54" t="n" s="8">
         <v>1253.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>945.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>753.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>686.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>17971.0</v>
@@ -6088,10 +6616,20 @@
       <c r="AF55" t="n" s="8">
         <v>20120.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>20513.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>20740.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>20699.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>19002.0</v>
@@ -6186,10 +6724,20 @@
       <c r="AF56" t="n" s="8">
         <v>21373.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>21458.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>21493.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>21385.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>7.5</v>
@@ -6284,10 +6832,20 @@
       <c r="AF57" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>889.0</v>
@@ -6382,10 +6940,20 @@
       <c r="AF58" t="n" s="8">
         <v>816.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>592.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>487.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>482.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>11025.0</v>
@@ -6480,10 +7048,20 @@
       <c r="AF59" t="n" s="8">
         <v>11666.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>11826.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>11541.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>11646.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>11914.0</v>
@@ -6578,10 +7156,20 @@
       <c r="AF60" t="n" s="8">
         <v>12482.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>12418.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>12028.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>12128.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>5.6</v>
@@ -6676,10 +7264,20 @@
       <c r="AF61" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>850.0</v>
@@ -6774,10 +7372,20 @@
       <c r="AF62" t="n" s="8">
         <v>958.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>693.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>551.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>507.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>14393.0</v>
@@ -6872,10 +7480,20 @@
       <c r="AF63" t="n" s="8">
         <v>15331.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>15439.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>15332.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>15819.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>15243.0</v>
@@ -6970,10 +7588,20 @@
       <c r="AF64" t="n" s="8">
         <v>16289.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>16132.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>15883.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>16326.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>5.5</v>
@@ -7068,10 +7696,20 @@
       <c r="AF65" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>1639.0</v>
@@ -7166,10 +7804,20 @@
       <c r="AF66" t="n" s="8">
         <v>1873.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>1318.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>1051.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>997.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>28308.0</v>
@@ -7264,10 +7912,20 @@
       <c r="AF67" t="n" s="8">
         <v>28052.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>28473.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>28898.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>29458.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>29947.0</v>
@@ -7362,10 +8020,20 @@
       <c r="AF68" t="n" s="8">
         <v>29925.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>29791.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>29949.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>30455.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>7.5</v>
@@ -7460,10 +8128,20 @@
       <c r="AF69" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>974.0</v>
@@ -7558,10 +8236,20 @@
       <c r="AF70" t="n" s="8">
         <v>772.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>739.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>584.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>571.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>12033.0</v>
@@ -7656,10 +8344,20 @@
       <c r="AF71" t="n" s="8">
         <v>12203.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>12323.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>12285.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>12471.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>13007.0</v>
@@ -7754,10 +8452,20 @@
       <c r="AF72" t="n" s="8">
         <v>12975.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>13062.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>12869.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>13042.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>2.9</v>
@@ -7852,10 +8560,20 @@
       <c r="AF73" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>1134.0</v>
@@ -7950,10 +8668,20 @@
       <c r="AF74" t="n" s="8">
         <v>4278.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>2772.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>2305.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>2135.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>37681.0</v>
@@ -8048,10 +8776,20 @@
       <c r="AF75" t="n" s="8">
         <v>71796.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>74829.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>77734.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>81492.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>38815.0</v>
@@ -8146,10 +8884,20 @@
       <c r="AF76" t="n" s="8">
         <v>76074.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>77601.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>80039.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>83627.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>4.3</v>
@@ -8244,10 +8992,20 @@
       <c r="AF77" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>389.0</v>
@@ -8342,10 +9100,20 @@
       <c r="AF78" t="n" s="8">
         <v>519.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>347.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>334.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>320.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>8721.0</v>
@@ -8440,10 +9208,20 @@
       <c r="AF79" t="n" s="8">
         <v>9871.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>10000.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>10002.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>10067.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>9110.0</v>
@@ -8538,10 +9316,20 @@
       <c r="AF80" t="n" s="8">
         <v>10390.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>10347.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>10336.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>10387.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>10.1</v>
@@ -8636,10 +9424,20 @@
       <c r="AF81" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>1104.0</v>
@@ -8734,10 +9532,20 @@
       <c r="AF82" t="n" s="8">
         <v>719.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>521.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>432.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>377.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>9851.0</v>
@@ -8832,10 +9640,20 @@
       <c r="AF83" t="n" s="8">
         <v>8495.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>8694.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>8849.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>9076.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>10955.0</v>
@@ -8930,10 +9748,20 @@
       <c r="AF84" t="n" s="8">
         <v>9214.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>9215.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>9281.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>9453.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>4.7</v>
@@ -9028,10 +9856,20 @@
       <c r="AF85" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>2637.0</v>
@@ -9126,10 +9964,20 @@
       <c r="AF86" t="n" s="8">
         <v>3544.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>2624.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>2134.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>2009.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>53563.0</v>
@@ -9224,10 +10072,20 @@
       <c r="AF87" t="n" s="8">
         <v>62096.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>63197.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>64295.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>65616.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>56200.0</v>
@@ -9322,10 +10180,20 @@
       <c r="AF88" t="n" s="8">
         <v>65640.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>65821.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>66429.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>67625.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>8.3</v>
@@ -9420,10 +10288,20 @@
       <c r="AF89" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>1867.0</v>
@@ -9518,10 +10396,20 @@
       <c r="AF90" t="n" s="8">
         <v>1863.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>1208.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>969.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>862.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>20564.0</v>
@@ -9616,10 +10504,20 @@
       <c r="AF91" t="n" s="8">
         <v>23734.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>24592.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>25184.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>25647.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>22431.0</v>
@@ -9714,10 +10612,20 @@
       <c r="AF92" t="n" s="8">
         <v>25597.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>25800.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>26153.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>26509.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>3.8</v>
@@ -9812,10 +10720,20 @@
       <c r="AF93" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>6595.0</v>
@@ -9910,10 +10828,20 @@
       <c r="AF94" t="n" s="8">
         <v>13808.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>8584.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>7266.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>7097.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>166075.0</v>
@@ -10008,10 +10936,20 @@
       <c r="AF95" t="n" s="8">
         <v>238182.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>247052.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>254376.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>260980.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>172670.0</v>
@@ -10106,10 +11044,20 @@
       <c r="AF96" t="n" s="8">
         <v>251990.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>255636.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>261642.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>268077.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>5.7</v>
@@ -10204,10 +11152,20 @@
       <c r="AF97" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>1740.0</v>
@@ -10302,10 +11260,20 @@
       <c r="AF98" t="n" s="8">
         <v>1904.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>1343.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>1088.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>1058.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>28786.0</v>
@@ -10400,10 +11368,20 @@
       <c r="AF99" t="n" s="8">
         <v>28896.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>28902.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>28675.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>28972.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>30526.0</v>
@@ -10498,10 +11476,20 @@
       <c r="AF100" t="n" s="8">
         <v>30800.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>30245.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>29763.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>30030.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>5.4</v>
@@ -10596,10 +11584,20 @@
       <c r="AF101" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>412.0</v>
@@ -10694,10 +11692,20 @@
       <c r="AF102" t="n" s="8">
         <v>381.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>281.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>226.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>227.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>7273.0</v>
@@ -10792,10 +11800,20 @@
       <c r="AF103" t="n" s="8">
         <v>7623.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>7711.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>7685.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>7885.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>7685.0</v>
@@ -10890,10 +11908,20 @@
       <c r="AF104" t="n" s="8">
         <v>8004.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>7992.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>7911.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>8112.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>6.4</v>
@@ -10988,10 +12016,20 @@
       <c r="AF105" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>4741.0</v>
@@ -11086,10 +12124,20 @@
       <c r="AF106" t="n" s="8">
         <v>12107.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>7331.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>5851.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>5406.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>69537.0</v>
@@ -11184,10 +12232,20 @@
       <c r="AF107" t="n" s="8">
         <v>132675.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>140214.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>145920.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>152818.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>74278.0</v>
@@ -11282,10 +12340,20 @@
       <c r="AF108" t="n" s="8">
         <v>144782.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>147545.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>151771.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>158224.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>3.9</v>
@@ -11380,10 +12448,20 @@
       <c r="AF109" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>254.0</v>
@@ -11478,10 +12556,20 @@
       <c r="AF110" t="n" s="8">
         <v>632.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>442.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>401.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>363.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>6332.0</v>
@@ -11576,10 +12664,20 @@
       <c r="AF111" t="n" s="8">
         <v>12193.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>12650.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>12875.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>13389.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>6586.0</v>
@@ -11674,10 +12772,20 @@
       <c r="AF112" t="n" s="8">
         <v>12825.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>13092.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>13276.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>13752.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>6.2</v>
@@ -11772,10 +12880,20 @@
       <c r="AF113" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>1396.0</v>
@@ -11870,10 +12988,20 @@
       <c r="AF114" t="n" s="8">
         <v>1486.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>1068.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>957.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>897.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>21224.0</v>
@@ -11968,10 +13096,20 @@
       <c r="AF115" t="n" s="8">
         <v>27447.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>28095.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>28599.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>29337.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>22620.0</v>
@@ -12066,10 +13204,20 @@
       <c r="AF116" t="n" s="8">
         <v>28933.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>29163.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>29556.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>30234.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>5.6</v>
@@ -12164,10 +13312,20 @@
       <c r="AF117" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>1597.0</v>
@@ -12262,10 +13420,20 @@
       <c r="AF118" t="n" s="8">
         <v>2783.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>1825.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>1556.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>1473.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>26690.0</v>
@@ -12360,10 +13528,20 @@
       <c r="AF119" t="n" s="8">
         <v>39537.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>41152.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>42310.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>43430.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>28287.0</v>
@@ -12458,10 +13636,20 @@
       <c r="AF120" t="n" s="8">
         <v>42320.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>42977.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>43866.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>44903.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>5.4</v>
@@ -12556,10 +13744,20 @@
       <c r="AF121" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>1584.0</v>
@@ -12654,10 +13852,20 @@
       <c r="AF122" t="n" s="8">
         <v>1955.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>1253.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>1010.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>978.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>27672.0</v>
@@ -12752,10 +13960,20 @@
       <c r="AF123" t="n" s="8">
         <v>27435.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>28451.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>29263.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>30015.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>29256.0</v>
@@ -12850,10 +14068,20 @@
       <c r="AF124" t="n" s="8">
         <v>29390.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>29704.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>30273.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>30993.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>6.0</v>
@@ -12948,10 +14176,20 @@
       <c r="AF125" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>471.0</v>
@@ -13046,10 +14284,20 @@
       <c r="AF126" t="n" s="8">
         <v>494.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>355.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>296.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>255.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>7431.0</v>
@@ -13144,10 +14392,20 @@
       <c r="AF127" t="n" s="8">
         <v>6181.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>6213.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>6125.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>6272.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>7902.0</v>
@@ -13242,10 +14500,20 @@
       <c r="AF128" t="n" s="8">
         <v>6675.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>6568.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>6421.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>6527.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>3.6</v>
@@ -13340,10 +14608,20 @@
       <c r="AF129" t="n" s="10">
         <v>4.2</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>3467.0</v>
@@ -13438,10 +14716,20 @@
       <c r="AF130" t="n" s="8">
         <v>6218.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>4505.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>4025.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>3824.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>92933.0</v>
@@ -13536,10 +14824,20 @@
       <c r="AF131" t="n" s="8">
         <v>141926.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>145398.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>148158.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>152047.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>96400.0</v>
@@ -13634,10 +14932,20 @@
       <c r="AF132" t="n" s="8">
         <v>148144.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>149903.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>152183.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>155871.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>9.5</v>
@@ -13732,10 +15040,20 @@
       <c r="AF133" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>351.0</v>
@@ -13830,10 +15148,20 @@
       <c r="AF134" t="n" s="8">
         <v>212.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>156.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>3349.0</v>
@@ -13928,10 +15256,20 @@
       <c r="AF135" t="n" s="8">
         <v>3073.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>3182.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>3324.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>3349.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>3700.0</v>
@@ -14026,10 +15364,20 @@
       <c r="AF136" t="n" s="8">
         <v>3285.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>3338.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>3447.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>3464.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>9.2</v>
@@ -14124,10 +15472,20 @@
       <c r="AF137" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>1463.0</v>
@@ -14222,10 +15580,20 @@
       <c r="AF138" t="n" s="8">
         <v>982.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>818.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>613.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>566.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>14382.0</v>
@@ -14320,10 +15688,20 @@
       <c r="AF139" t="n" s="8">
         <v>11998.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>12057.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>12050.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>12167.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>15845.0</v>
@@ -14418,10 +15796,20 @@
       <c r="AF140" t="n" s="8">
         <v>12980.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>12875.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>12663.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>12733.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>9.7</v>
@@ -14516,10 +15904,20 @@
       <c r="AF141" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>1299.0</v>
@@ -14614,10 +16012,20 @@
       <c r="AF142" t="n" s="8">
         <v>856.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>649.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>533.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>539.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>12087.0</v>
@@ -14712,10 +16120,20 @@
       <c r="AF143" t="n" s="8">
         <v>8225.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>8142.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>7557.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>6960.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>13386.0</v>
@@ -14810,10 +16228,20 @@
       <c r="AF144" t="n" s="8">
         <v>9081.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>8791.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>8090.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>7499.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>5.7</v>
@@ -14908,10 +16336,20 @@
       <c r="AF145" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>935.0</v>
@@ -15006,10 +16444,20 @@
       <c r="AF146" t="n" s="8">
         <v>870.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>624.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>526.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>549.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>15568.0</v>
@@ -15104,10 +16552,20 @@
       <c r="AF147" t="n" s="8">
         <v>17997.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>18579.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>18664.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>18483.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>16503.0</v>
@@ -15202,10 +16660,20 @@
       <c r="AF148" t="n" s="8">
         <v>18867.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>19203.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>19190.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>19032.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>5.1</v>
@@ -15300,10 +16768,20 @@
       <c r="AF149" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>1496.0</v>
@@ -15398,10 +16876,20 @@
       <c r="AF150" t="n" s="8">
         <v>1770.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>1223.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>1046.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>988.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>27665.0</v>
@@ -15496,10 +16984,20 @@
       <c r="AF151" t="n" s="8">
         <v>32546.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>32809.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>33391.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>34733.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>29161.0</v>
@@ -15594,10 +17092,20 @@
       <c r="AF152" t="n" s="8">
         <v>34316.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>34032.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>34437.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>35721.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>7.7</v>
@@ -15692,10 +17200,20 @@
       <c r="AF153" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>3001.0</v>
@@ -15790,10 +17308,20 @@
       <c r="AF154" t="n" s="8">
         <v>2986.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>2287.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>1641.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>1475.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>36033.0</v>
@@ -15888,10 +17416,20 @@
       <c r="AF155" t="n" s="8">
         <v>31089.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>31201.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>31341.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>31917.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>39034.0</v>
@@ -15986,10 +17524,20 @@
       <c r="AF156" t="n" s="8">
         <v>34075.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>33488.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>32982.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>33392.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>4.7</v>
@@ -16084,10 +17632,20 @@
       <c r="AF157" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>2328.0</v>
@@ -16182,10 +17740,20 @@
       <c r="AF158" t="n" s="8">
         <v>2869.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>1952.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>1793.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>1741.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>46826.0</v>
@@ -16280,10 +17848,20 @@
       <c r="AF159" t="n" s="8">
         <v>52908.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>54913.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>56548.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>58027.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>49154.0</v>
@@ -16378,10 +17956,20 @@
       <c r="AF160" t="n" s="8">
         <v>55777.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>56865.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>58341.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>59768.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>3.7</v>
@@ -16476,10 +18064,20 @@
       <c r="AF161" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>5444.0</v>
@@ -16574,10 +18172,20 @@
       <c r="AF162" t="n" s="8">
         <v>11052.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>7916.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>6425.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>6064.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>141619.0</v>
@@ -16672,10 +18280,20 @@
       <c r="AF163" t="n" s="8">
         <v>183830.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>188308.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>192084.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>197182.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>147063.0</v>
@@ -16770,10 +18388,20 @@
       <c r="AF164" t="n" s="8">
         <v>194882.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>196224.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>198509.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>203246.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>6.1</v>
@@ -16868,10 +18496,20 @@
       <c r="AF165" t="n" s="10">
         <v>4.2</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>495.0</v>
@@ -16966,10 +18604,20 @@
       <c r="AF166" t="n" s="8">
         <v>347.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>263.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>240.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>245.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>7608.0</v>
@@ -17064,10 +18712,20 @@
       <c r="AF167" t="n" s="8">
         <v>8004.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>8146.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>8213.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>8393.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>8103.0</v>
@@ -17162,10 +18820,20 @@
       <c r="AF168" t="n" s="8">
         <v>8351.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>8409.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>8453.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>8638.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>4.5</v>
@@ -17260,10 +18928,20 @@
       <c r="AF169" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>5342.0</v>
@@ -17358,10 +19036,20 @@
       <c r="AF170" t="n" s="8">
         <v>9852.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>6056.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>4839.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>4585.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>114022.0</v>
@@ -17456,10 +19144,20 @@
       <c r="AF171" t="n" s="8">
         <v>146381.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>149151.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>150296.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>153786.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>119364.0</v>
@@ -17554,10 +19252,20 @@
       <c r="AF172" t="n" s="8">
         <v>156233.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>155207.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>155135.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>158371.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>5.4</v>
@@ -17652,10 +19360,20 @@
       <c r="AF173" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>2201.0</v>
@@ -17750,10 +19468,20 @@
       <c r="AF174" t="n" s="8">
         <v>2789.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>1918.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>1601.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>1583.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>38483.0</v>
@@ -17848,10 +19576,20 @@
       <c r="AF175" t="n" s="8">
         <v>40230.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>40714.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>40399.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>39629.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>40684.0</v>
@@ -17946,10 +19684,20 @@
       <c r="AF176" t="n" s="8">
         <v>43019.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>42632.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>42000.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>41212.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>7.8</v>
@@ -18044,10 +19792,20 @@
       <c r="AF177" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>1187.0</v>
@@ -18142,10 +19900,20 @@
       <c r="AF178" t="n" s="8">
         <v>1017.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>709.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>527.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>466.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>14047.0</v>
@@ -18240,10 +20008,20 @@
       <c r="AF179" t="n" s="8">
         <v>10452.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>10656.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>10739.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>10989.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>15234.0</v>
@@ -18338,10 +20116,20 @@
       <c r="AF180" t="n" s="8">
         <v>11469.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>11365.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>11266.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>11455.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>9.6</v>
@@ -18436,10 +20224,20 @@
       <c r="AF181" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>1607.0</v>
@@ -18534,10 +20332,20 @@
       <c r="AF182" t="n" s="8">
         <v>920.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>659.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>512.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>496.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>15070.0</v>
@@ -18632,10 +20440,20 @@
       <c r="AF183" t="n" s="8">
         <v>10582.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>10446.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>10285.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>9909.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>16677.0</v>
@@ -18730,10 +20548,20 @@
       <c r="AF184" t="n" s="8">
         <v>11502.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>11105.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>10797.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>10405.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>3.7</v>
@@ -18828,10 +20656,20 @@
       <c r="AF185" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>2646.0</v>
@@ -18926,10 +20764,20 @@
       <c r="AF186" t="n" s="8">
         <v>8318.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>5274.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>4618.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>4296.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>69000.0</v>
@@ -19024,10 +20872,20 @@
       <c r="AF187" t="n" s="8">
         <v>134794.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>140418.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>144505.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>148386.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>71646.0</v>
@@ -19122,6 +20980,16 @@
       <c r="AF188" t="n" s="8">
         <v>143112.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>145692.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>149123.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>152682.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -19132,7 +21000,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (02:28:52 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (03:03:28 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
